--- a/01_Project_DataScienceBlogPost/data/chk_relevant_features.xlsx
+++ b/01_Project_DataScienceBlogPost/data/chk_relevant_features.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UserData\z635177\Udacity_Kurse\Udacity_DataScientist_Class\01_Project_DataScienceBlogPost\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040CA4C3-8C50-4D6E-B63A-0924A43D7820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550E574F-CBB1-4F4A-88CD-F4464FA517A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="405" windowWidth="29040" windowHeight="15990" xr2:uid="{D51258AB-74EA-4888-84B0-EF928CD990DE}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{D51258AB-74EA-4888-84B0-EF928CD990DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$98</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -345,6 +348,243 @@
   </si>
   <si>
     <t>abh. Variable</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Real Bed</t>
+  </si>
+  <si>
+    <t>$0.00</t>
+  </si>
+  <si>
+    <t>24-Hour Check-in</t>
+  </si>
+  <si>
+    <t>Air Conditioning</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Buzzer/Wireless Intercom</t>
+  </si>
+  <si>
+    <t>Cable TV</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide Detector</t>
+  </si>
+  <si>
+    <t>Cat(s)</t>
+  </si>
+  <si>
+    <t>Dog(s)</t>
+  </si>
+  <si>
+    <t>Doorman</t>
+  </si>
+  <si>
+    <t>Dryer</t>
+  </si>
+  <si>
+    <t>Elevator in Building</t>
+  </si>
+  <si>
+    <t>Essentials</t>
+  </si>
+  <si>
+    <t>Family/Kid Friendly</t>
+  </si>
+  <si>
+    <t>Fire Extinguisher</t>
+  </si>
+  <si>
+    <t>First Aid Kit</t>
+  </si>
+  <si>
+    <t>Free Parking on Premises</t>
+  </si>
+  <si>
+    <t>Free Parking on Street</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Hair Dryer</t>
+  </si>
+  <si>
+    <t>Hangers</t>
+  </si>
+  <si>
+    <t>Heating</t>
+  </si>
+  <si>
+    <t>Hot Tub</t>
+  </si>
+  <si>
+    <t>Indoor Fireplace</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Laptop Friendly Workspace</t>
+  </si>
+  <si>
+    <t>Lock on Bedroom Door</t>
+  </si>
+  <si>
+    <t>Other pet(s)</t>
+  </si>
+  <si>
+    <t>Paid Parking Off Premises</t>
+  </si>
+  <si>
+    <t>Pets Allowed</t>
+  </si>
+  <si>
+    <t>Pets live on this property</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>Safety Card</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Smoke Detector</t>
+  </si>
+  <si>
+    <t>Smoking Allowed</t>
+  </si>
+  <si>
+    <t>Suitable for Events</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>Washer / Dryer</t>
+  </si>
+  <si>
+    <t>Wheelchair Accessible</t>
+  </si>
+  <si>
+    <t>Wireless Internet</t>
+  </si>
+  <si>
+    <t>translation missing: en.hosting_amenity_49</t>
+  </si>
+  <si>
+    <t>translation missing: en.hosting_amenity_50</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>within a few hours</t>
+  </si>
+  <si>
+    <t>South End</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>strict</t>
+  </si>
+  <si>
+    <t>len()</t>
+  </si>
+  <si>
+    <t>t:1 | f:0</t>
+  </si>
+  <si>
+    <t>8301926</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>['email', 'phone', 'reviews', 'jumio']</t>
+  </si>
+  <si>
+    <t>Private room</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>$99.00</t>
+  </si>
+  <si>
+    <t>$110.00</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2015-09-14</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2.2003850196689387</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>$ entfernen + in float</t>
+  </si>
+  <si>
+    <t>Berechnung bis 2017</t>
   </si>
 </sst>
 </file>
@@ -359,17 +599,32 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -379,10 +634,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,27 +964,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8857BAA8-F124-4066-B8F6-8FFEEAC7946D}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4"/>
+    <col min="7" max="7" width="24.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="32.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -728,8 +1005,17 @@
       <c r="C2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -739,8 +1025,14 @@
       <c r="C3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -750,8 +1042,14 @@
       <c r="C4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -761,8 +1059,14 @@
       <c r="C5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -770,10 +1074,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -781,10 +1094,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -794,8 +1113,14 @@
       <c r="C8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -805,8 +1130,17 @@
       <c r="C9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -816,8 +1150,17 @@
       <c r="C10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -827,8 +1170,17 @@
       <c r="C11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -838,8 +1190,14 @@
       <c r="C12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -849,8 +1207,14 @@
       <c r="C13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -860,8 +1224,14 @@
       <c r="C14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -871,8 +1241,14 @@
       <c r="C15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -882,8 +1258,14 @@
       <c r="C16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -893,8 +1275,14 @@
       <c r="C17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -904,8 +1292,14 @@
       <c r="C18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -915,8 +1309,14 @@
       <c r="C19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -926,8 +1326,14 @@
       <c r="C20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -937,8 +1343,17 @@
       <c r="C21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -948,8 +1363,17 @@
       <c r="C22" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -959,8 +1383,14 @@
       <c r="C23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -970,8 +1400,17 @@
       <c r="C24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -981,8 +1420,14 @@
       <c r="C25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -992,8 +1437,14 @@
       <c r="C26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1003,8 +1454,14 @@
       <c r="C27" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1014,8 +1471,14 @@
       <c r="C28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1025,8 +1488,14 @@
       <c r="C29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G29" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1036,8 +1505,14 @@
       <c r="C30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G30" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1047,8 +1522,14 @@
       <c r="C31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1058,8 +1539,17 @@
       <c r="C32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1069,8 +1559,17 @@
       <c r="C33" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1080,8 +1579,14 @@
       <c r="C34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1091,8 +1596,14 @@
       <c r="C35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1105,8 +1616,14 @@
       <c r="D36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1116,8 +1633,14 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1127,8 +1650,14 @@
       <c r="C38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1138,8 +1667,14 @@
       <c r="C39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1149,8 +1684,14 @@
       <c r="C40" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1160,8 +1701,17 @@
       <c r="C41" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1171,8 +1721,14 @@
       <c r="C42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G42" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1182,8 +1738,14 @@
       <c r="C43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G43" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1193,8 +1755,14 @@
       <c r="C44" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1204,8 +1772,14 @@
       <c r="C45" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1215,8 +1789,14 @@
       <c r="C46" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1226,8 +1806,14 @@
       <c r="C47" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1237,8 +1823,14 @@
       <c r="C48" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G48" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1248,8 +1840,14 @@
       <c r="C49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G49" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1259,8 +1857,14 @@
       <c r="C50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G50" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1270,8 +1874,14 @@
       <c r="C51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1281,8 +1891,14 @@
       <c r="C52" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1292,8 +1908,14 @@
       <c r="C53" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1303,8 +1925,14 @@
       <c r="C54" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G54" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1314,8 +1942,14 @@
       <c r="C55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G55" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1325,8 +1959,14 @@
       <c r="C56" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G56" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1336,8 +1976,14 @@
       <c r="C57" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G57" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1347,8 +1993,14 @@
       <c r="C58" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G58" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1358,8 +2010,14 @@
       <c r="C59" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1372,8 +2030,14 @@
       <c r="D60" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1383,8 +2047,14 @@
       <c r="C61" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G61" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1397,8 +2067,14 @@
       <c r="D62" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G62" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1408,8 +2084,14 @@
       <c r="C63" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G63" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1419,8 +2101,14 @@
       <c r="C64" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G64" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1430,8 +2118,14 @@
       <c r="C65" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G65" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1441,8 +2135,14 @@
       <c r="C66" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G66" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1452,8 +2152,14 @@
       <c r="C67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G67" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1463,8 +2169,14 @@
       <c r="C68" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G68" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1474,8 +2186,14 @@
       <c r="C69" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G69" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1485,8 +2203,14 @@
       <c r="C70" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1496,8 +2220,14 @@
       <c r="C71" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G71" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1507,8 +2237,14 @@
       <c r="C72" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G72" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1518,8 +2254,14 @@
       <c r="C73" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G73" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1529,8 +2271,14 @@
       <c r="C74" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G74" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1540,8 +2288,14 @@
       <c r="C75" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G75" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1551,8 +2305,14 @@
       <c r="C76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G76" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1562,8 +2322,14 @@
       <c r="C77" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G77" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1573,8 +2339,14 @@
       <c r="C78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G78" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1584,8 +2356,14 @@
       <c r="C79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G79" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1595,8 +2373,14 @@
       <c r="C80" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G80" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1606,8 +2390,14 @@
       <c r="C81" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G81" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1617,8 +2407,14 @@
       <c r="C82" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G82" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1628,8 +2424,14 @@
       <c r="C83" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G83" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1639,8 +2441,14 @@
       <c r="C84" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G84" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1650,8 +2458,14 @@
       <c r="C85" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G85" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1661,8 +2475,14 @@
       <c r="C86" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G86" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1672,8 +2492,14 @@
       <c r="C87" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G87" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1683,8 +2509,14 @@
       <c r="C88" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G88" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1695,7 +2527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1706,7 +2538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1717,7 +2549,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1728,7 +2560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1739,7 +2571,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1750,7 +2582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1761,7 +2593,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1795,6 +2627,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D98" xr:uid="{8857BAA8-F124-4066-B8F6-8FFEEAC7946D}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
